--- a/test/test_data_old.xlsx
+++ b/test/test_data_old.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manasveesaraf/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manasveesaraf/Documents/GitHub/LuminosityFunction/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7199C8CB-194E-5D4B-B7FB-8B016AE83005}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90074FB9-C13A-0B40-A2AB-58CA53A6C133}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" xr2:uid="{084AFDC8-DFF9-2047-9A62-DB2E28AA91B6}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14300" xr2:uid="{084AFDC8-DFF9-2047-9A62-DB2E28AA91B6}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="4" r:id="rId1"/>
+    <sheet name="test_data_old" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -2460,7 +2460,7 @@
   <dimension ref="A1:W663"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
